--- a/2025/Data/VParty.xlsx
+++ b/2025/Data/VParty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/Research/populism-index/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/Research/populism-index/2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_01C75D96CA703E1DBB838BD03B6F2CFDD8E3FCD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E21355F-3C7F-46DF-B8C9-BD1B3AE306E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D7AD4AF-9A96-477C-8438-49F0639867A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2289,6 +2289,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -89287,6 +89291,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="AA1:AN1"/>
+    <mergeCell ref="AO1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BW1"/>
+    <mergeCell ref="BX1:CH1"/>
+    <mergeCell ref="CI1:CQ1"/>
+    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="CX1:DY1"/>
+    <mergeCell ref="DZ1:FA1"/>
+    <mergeCell ref="FB1:FG1"/>
+    <mergeCell ref="FH1:FL1"/>
+    <mergeCell ref="FM1:GH1"/>
+    <mergeCell ref="GI1:GJ1"/>
+    <mergeCell ref="GK1:GV1"/>
     <mergeCell ref="JJ1:KJ1"/>
     <mergeCell ref="KK1:KO1"/>
     <mergeCell ref="KP1:KT1"/>
@@ -89296,21 +89315,6 @@
     <mergeCell ref="HQ1:IS1"/>
     <mergeCell ref="IT1:JB1"/>
     <mergeCell ref="JC1:JI1"/>
-    <mergeCell ref="FB1:FG1"/>
-    <mergeCell ref="FH1:FL1"/>
-    <mergeCell ref="FM1:GH1"/>
-    <mergeCell ref="GI1:GJ1"/>
-    <mergeCell ref="GK1:GV1"/>
-    <mergeCell ref="BX1:CH1"/>
-    <mergeCell ref="CI1:CQ1"/>
-    <mergeCell ref="CS1:CW1"/>
-    <mergeCell ref="CX1:DY1"/>
-    <mergeCell ref="DZ1:FA1"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="AA1:AN1"/>
-    <mergeCell ref="AO1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BW1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
